--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/个人资本金.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/个人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,379 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>19.40359</v>
-      </c>
-      <c r="C2" t="n">
-        <v>27.47696</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.48214</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00492</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.11649</v>
-      </c>
-      <c r="G2" t="n">
-        <v>31.86051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.90726</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20.64217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.59458</v>
-      </c>
-      <c r="K2" t="n">
-        <v>25.31995</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9.4923</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5.58967</v>
-      </c>
-      <c r="N2" t="n">
-        <v>33.67822</v>
-      </c>
-      <c r="O2" t="n">
-        <v>17.8599</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.26714</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>30.60257</v>
-      </c>
-      <c r="R2" t="n">
-        <v>11.7211</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>6.5534</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.88453</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.73021</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>15.45078</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>43.06937</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11.03079</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.46792</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>595.11585</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>57.63786</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.08101</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17.2945</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>39.5388</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>52.40187</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.83645</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>12.26906</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>32.0968</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>13.19362</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>18.22064</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.12377</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>31.63421</v>
-      </c>
-      <c r="C3" t="n">
-        <v>41.7169</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.19805</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.06443</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18.95254</v>
-      </c>
-      <c r="G3" t="n">
-        <v>60.31565</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.11266</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22.51963</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.66039</v>
-      </c>
-      <c r="K3" t="n">
-        <v>40.99106</v>
-      </c>
-      <c r="L3" t="n">
-        <v>14.46374</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.32038</v>
-      </c>
-      <c r="N3" t="n">
-        <v>63.53274</v>
-      </c>
-      <c r="O3" t="n">
-        <v>32.76144</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.71292</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>45.72905</v>
-      </c>
-      <c r="R3" t="n">
-        <v>23.17704</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" t="n">
-        <v>9.23583</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.65167</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.67159</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.9788</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>27.10044</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>63.58729</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>25.47307</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12.73677</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1010.46703</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>101.29961</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.23318</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>31.51387</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>61.53957</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>84.71001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>5.09927</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>25.65994</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>48.97653</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>18.51254</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>32.62728</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>4.90794</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>53.95168</v>
-      </c>
-      <c r="C4" t="n">
-        <v>58.5863</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.62858</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1951</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24.18894</v>
-      </c>
-      <c r="G4" t="n">
-        <v>89.59950000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11.83577</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33.07889</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15.89209</v>
-      </c>
-      <c r="K4" t="n">
-        <v>64.5599</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17.71222</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17.57124</v>
-      </c>
-      <c r="N4" t="n">
-        <v>98.56119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39.66787</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.2625</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>64.00766</v>
-      </c>
-      <c r="R4" t="n">
-        <v>30.82035</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>13.27746</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.7207</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12.41687</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11.24359</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>41.85158</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>92.10889</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>37.95141</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>20.05012</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>1495.25685</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>160.21388</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.33127</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>43.97563</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>89.89525</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>133.27978</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>7.61267</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34.37869</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>72.38093000000001</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>22.07353</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>53.95965</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.39917</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
